--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Birlasoft Ltd/Pruned_Excel/Semi_Final/Birlasoft Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Birlasoft Ltd/Pruned_Excel/Semi_Final/Birlasoft Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Birlasoft(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Birlasoft(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Birlasoft(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,49 +278,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>7.04</v>
-      </c>
-      <c r="C2">
-        <v>98.95</v>
       </c>
       <c r="D2">
         <v>98.95</v>
       </c>
       <c r="E2">
+        <v>98.95</v>
+      </c>
+      <c r="F2">
         <v>106</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.51</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>40.25</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>166.93</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>43.38</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>48.43</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>69.76000000000001</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>97.17</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>166.93</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>7.28</v>
-      </c>
-      <c r="C3">
-        <v>130.65</v>
       </c>
       <c r="D3">
         <v>130.65</v>
       </c>
       <c r="E3">
+        <v>130.65</v>
+      </c>
+      <c r="F3">
         <v>137.93</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>18.47</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>64.86</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>262.79</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>47.62</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>80.84999999999999</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>114.14</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>148.65</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>262.79</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>14.96</v>
-      </c>
-      <c r="C4">
-        <v>175.68</v>
       </c>
       <c r="D4">
         <v>175.68</v>
       </c>
       <c r="E4">
+        <v>175.68</v>
+      </c>
+      <c r="F4">
         <v>190.64</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>26.44</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>109.19</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>378.97</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>103.72</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>131.91</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>216.91</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>162.06</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>378.97</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>15.58</v>
-      </c>
-      <c r="C5">
-        <v>256.93</v>
       </c>
       <c r="D5">
         <v>256.93</v>
       </c>
       <c r="E5">
+        <v>256.93</v>
+      </c>
+      <c r="F5">
         <v>272.51</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>24.86</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>99.25</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>439.02</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>90.3</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>128.83</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>200.97</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>238.05</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>439.02</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>15.61</v>
-      </c>
-      <c r="C6">
-        <v>155.99</v>
       </c>
       <c r="D6">
         <v>155.99</v>
       </c>
       <c r="E6">
+        <v>155.99</v>
+      </c>
+      <c r="F6">
         <v>171.6</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>185.81</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>298.29</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>551.2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>71.56</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>147.91</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>231.28</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>319.93</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>551.2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>15.7</v>
-      </c>
-      <c r="C7">
-        <v>370.99</v>
       </c>
       <c r="D7">
         <v>370.99</v>
       </c>
       <c r="E7">
+        <v>370.99</v>
+      </c>
+      <c r="F7">
         <v>386.69</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>54.55</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>146.87</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>589.26</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>54.57</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>140.2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>366.76</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>222.51</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>589.26</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>17.57</v>
-      </c>
-      <c r="C8">
-        <v>564.05</v>
       </c>
       <c r="D8">
         <v>564.05</v>
       </c>
       <c r="E8">
+        <v>564.05</v>
+      </c>
+      <c r="F8">
         <v>581.63</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>52.18</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>193.9</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>803.65</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>77.93000000000001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>143.55</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>397.88</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>405.77</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>803.65</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>35.59</v>
-      </c>
-      <c r="C9">
-        <v>578.61</v>
       </c>
       <c r="D9">
         <v>578.61</v>
       </c>
       <c r="E9">
+        <v>578.61</v>
+      </c>
+      <c r="F9">
         <v>614.2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>59.57</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>280.03</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>928.79</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>116.79</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>160.97</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>615.55</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>313.24</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>928.79</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>38.56</v>
-      </c>
-      <c r="C10">
-        <v>848.61</v>
       </c>
       <c r="D10">
         <v>848.61</v>
       </c>
       <c r="E10">
+        <v>848.61</v>
+      </c>
+      <c r="F10">
         <v>887.17</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>76.91</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>333.33</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1331.41</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>118.75</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>162.88</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>791.28</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>540.13</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1331.41</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>37.1</v>
-      </c>
-      <c r="C11">
-        <v>1006.34</v>
       </c>
       <c r="D11">
         <v>1006.34</v>
       </c>
       <c r="E11">
+        <v>1006.34</v>
+      </c>
+      <c r="F11">
         <v>1043.44</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>103.19</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>480.86</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1633.46</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>129.1</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>182.4</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>954.99</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>678.47</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1633.46</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>37.61</v>
-      </c>
-      <c r="C12">
-        <v>1005.26</v>
       </c>
       <c r="D12">
         <v>1005.26</v>
       </c>
       <c r="E12">
+        <v>1005.26</v>
+      </c>
+      <c r="F12">
         <v>1042.87</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>117.42</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>579.03</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1706.26</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>144.35</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>205.86</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>866.9</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>839.36</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1706.26</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>37.57</v>
-      </c>
-      <c r="C13">
-        <v>1181.5</v>
       </c>
       <c r="D13">
         <v>1181.5</v>
       </c>
       <c r="E13">
+        <v>1181.5</v>
+      </c>
+      <c r="F13">
         <v>1219.06</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>164.59</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>281.91</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1691.36</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>179.45</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>262.42</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>891.6799999999999</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>799.6799999999999</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1691.36</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>37.64</v>
-      </c>
-      <c r="C14">
-        <v>1336.68</v>
       </c>
       <c r="D14">
         <v>1336.68</v>
       </c>
       <c r="E14">
+        <v>1336.68</v>
+      </c>
+      <c r="F14">
         <v>1374.32</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>154.58</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>420.35</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1919.84</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>191.75</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>361.28</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1050.86</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>868.97</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1919.84</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>37.9</v>
-      </c>
-      <c r="C15">
-        <v>1466.33</v>
       </c>
       <c r="D15">
         <v>1466.33</v>
       </c>
       <c r="E15">
+        <v>1466.33</v>
+      </c>
+      <c r="F15">
         <v>1504.24</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>224.57</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>499.02</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2101.4</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>288.9</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>392.69</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1156.82</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>944.59</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2101.4</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>54.83</v>
-      </c>
-      <c r="C16">
-        <v>1129.4</v>
       </c>
       <c r="D16">
         <v>1129.4</v>
       </c>
       <c r="E16">
+        <v>1129.4</v>
+      </c>
+      <c r="F16">
         <v>1184.23</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>285.43</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>444.52</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1663.81</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>138.12</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>154.8</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>697.26</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>966.55</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1663.81</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>55.34</v>
-      </c>
-      <c r="C17">
-        <v>1156.23</v>
       </c>
       <c r="D17">
         <v>1156.23</v>
       </c>
       <c r="E17">
+        <v>1156.23</v>
+      </c>
+      <c r="F17">
         <v>1211.57</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>234.41</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>320.28</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1672.51</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>257.45</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>275.81</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>792.42</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>880.09</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1672.51</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>55.46</v>
-      </c>
-      <c r="C18">
-        <v>1337.58</v>
       </c>
       <c r="D18">
         <v>1337.58</v>
       </c>
       <c r="E18">
+        <v>1337.58</v>
+      </c>
+      <c r="F18">
         <v>1393.04</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>233.41</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>309.12</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1833.07</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>217.89</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>234.91</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>708.02</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1125.05</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1833.07</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>55.9</v>
-      </c>
-      <c r="C19">
-        <v>1533.02</v>
       </c>
       <c r="D19">
         <v>1533.02</v>
       </c>
       <c r="E19">
+        <v>1533.02</v>
+      </c>
+      <c r="F19">
         <v>1588.92</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>200.58</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>290.3</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2008.43</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>238.36</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>250.55</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>743.86</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1264.57</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2008.43</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>54.97</v>
-      </c>
-      <c r="C20">
-        <v>1165.96</v>
       </c>
       <c r="D20">
         <v>1165.96</v>
       </c>
       <c r="E20">
+        <v>1165.96</v>
+      </c>
+      <c r="F20">
         <v>1220.94</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>169.42</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>292.38</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1619.78</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>215.28</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>235.46</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>759.73</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>860.05</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1619.78</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>55.19</v>
-      </c>
-      <c r="C21">
-        <v>1413.01</v>
       </c>
       <c r="D21">
         <v>1413.01</v>
       </c>
       <c r="E21">
+        <v>1413.01</v>
+      </c>
+      <c r="F21">
         <v>1468.2</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>225.6</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>453.85</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2018.08</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>141.96</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>159.62</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>889.84</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1128.24</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>2018.08</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>23.25</v>
+      </c>
+      <c r="D2">
+        <v>15.57</v>
+      </c>
+      <c r="E2">
+        <v>-42.81</v>
+      </c>
+      <c r="F2">
+        <v>49.5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>22.27</v>
+      </c>
+      <c r="I2">
+        <v>17.34</v>
+      </c>
+      <c r="J2">
+        <v>39.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>28.54</v>
+      </c>
+      <c r="D3">
+        <v>21.65</v>
+      </c>
+      <c r="E3">
+        <v>-78.09999999999999</v>
+      </c>
+      <c r="F3">
+        <v>51.57</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-4.88</v>
+      </c>
+      <c r="I3">
+        <v>39.61</v>
+      </c>
+      <c r="J3">
+        <v>34.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>48.34</v>
+      </c>
+      <c r="D4">
+        <v>40.7</v>
+      </c>
+      <c r="E4">
+        <v>-81.61</v>
+      </c>
+      <c r="F4">
+        <v>32.73</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="I4">
+        <v>34.73</v>
+      </c>
+      <c r="J4">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>70.7</v>
+      </c>
+      <c r="D5">
+        <v>50.7</v>
+      </c>
+      <c r="E5">
+        <v>-18.16</v>
+      </c>
+      <c r="F5">
+        <v>-1.35</v>
+      </c>
+      <c r="G5">
+        <v>0.06</v>
+      </c>
+      <c r="H5">
+        <v>31.25</v>
+      </c>
+      <c r="I5">
+        <v>26.53</v>
+      </c>
+      <c r="J5">
+        <v>57.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>70.41</v>
+      </c>
+      <c r="D6">
+        <v>123.24</v>
+      </c>
+      <c r="E6">
+        <v>-50.72</v>
+      </c>
+      <c r="F6">
+        <v>-8.99</v>
+      </c>
+      <c r="G6">
+        <v>1.59</v>
+      </c>
+      <c r="H6">
+        <v>65.12</v>
+      </c>
+      <c r="I6">
+        <v>57.79</v>
+      </c>
+      <c r="J6">
+        <v>122.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>90.17</v>
+      </c>
+      <c r="D7">
+        <v>109.85</v>
+      </c>
+      <c r="E7">
+        <v>-143.45</v>
+      </c>
+      <c r="F7">
+        <v>-12.72</v>
+      </c>
+      <c r="G7">
+        <v>-2.77</v>
+      </c>
+      <c r="H7">
+        <v>-49.09</v>
+      </c>
+      <c r="I7">
+        <v>101.82</v>
+      </c>
+      <c r="J7">
+        <v>52.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>78.94</v>
+      </c>
+      <c r="D8">
+        <v>31.65</v>
+      </c>
+      <c r="E8">
+        <v>-55.38</v>
+      </c>
+      <c r="F8">
+        <v>105.2</v>
+      </c>
+      <c r="G8">
+        <v>2.4</v>
+      </c>
+      <c r="H8">
+        <v>95.34999999999999</v>
+      </c>
+      <c r="I8">
+        <v>52.73</v>
+      </c>
+      <c r="J8">
+        <v>148.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>106.86</v>
+      </c>
+      <c r="D9">
+        <v>95.92</v>
+      </c>
+      <c r="E9">
+        <v>-230.66</v>
+      </c>
+      <c r="F9">
+        <v>28.51</v>
+      </c>
+      <c r="G9">
+        <v>-2.66</v>
+      </c>
+      <c r="H9">
+        <v>-108.89</v>
+      </c>
+      <c r="I9">
+        <v>148.08</v>
+      </c>
+      <c r="J9">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>134.29</v>
+      </c>
+      <c r="D10">
+        <v>116.39</v>
+      </c>
+      <c r="E10">
+        <v>-373.11</v>
+      </c>
+      <c r="F10">
+        <v>282.76</v>
+      </c>
+      <c r="G10">
+        <v>1.03</v>
+      </c>
+      <c r="H10">
+        <v>27.07</v>
+      </c>
+      <c r="I10">
+        <v>39.2</v>
+      </c>
+      <c r="J10">
+        <v>66.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>197.32</v>
+      </c>
+      <c r="D11">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="E11">
+        <v>-177.24</v>
+      </c>
+      <c r="F11">
+        <v>89.88</v>
+      </c>
+      <c r="G11">
+        <v>-0.23</v>
+      </c>
+      <c r="H11">
+        <v>-19.59</v>
+      </c>
+      <c r="I11">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J11">
+        <v>52.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>171.4</v>
+      </c>
+      <c r="D12">
+        <v>209.99</v>
+      </c>
+      <c r="E12">
+        <v>-92.19</v>
+      </c>
+      <c r="F12">
+        <v>-26.28</v>
+      </c>
+      <c r="G12">
+        <v>-1.06</v>
+      </c>
+      <c r="H12">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="I12">
+        <v>54.38</v>
+      </c>
+      <c r="J12">
+        <v>144.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>203.17</v>
+      </c>
+      <c r="D13">
+        <v>359.87</v>
+      </c>
+      <c r="E13">
+        <v>-123.5</v>
+      </c>
+      <c r="F13">
+        <v>-270.47</v>
+      </c>
+      <c r="G13">
+        <v>0.15</v>
+      </c>
+      <c r="H13">
+        <v>-33.94</v>
+      </c>
+      <c r="I13">
+        <v>144.84</v>
+      </c>
+      <c r="J13">
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>169.29</v>
+      </c>
+      <c r="D14">
+        <v>125.96</v>
+      </c>
+      <c r="E14">
+        <v>-154.12</v>
+      </c>
+      <c r="F14">
+        <v>50.49</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>22.33</v>
+      </c>
+      <c r="I14">
+        <v>110.9</v>
+      </c>
+      <c r="J14">
+        <v>133.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>177.55</v>
+      </c>
+      <c r="D15">
+        <v>265.66</v>
+      </c>
+      <c r="E15">
+        <v>-135.87</v>
+      </c>
+      <c r="F15">
+        <v>-116.7</v>
+      </c>
+      <c r="G15">
+        <v>0.84</v>
+      </c>
+      <c r="H15">
+        <v>13.94</v>
+      </c>
+      <c r="I15">
+        <v>133.23</v>
+      </c>
+      <c r="J15">
+        <v>147.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>167.63</v>
+      </c>
+      <c r="D16">
+        <v>29.49</v>
+      </c>
+      <c r="E16">
+        <v>89.13</v>
+      </c>
+      <c r="F16">
+        <v>-196.81</v>
+      </c>
+      <c r="G16">
+        <v>-2.29</v>
+      </c>
+      <c r="H16">
+        <v>-65.17</v>
+      </c>
+      <c r="I16">
+        <v>147.17</v>
+      </c>
+      <c r="J16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>140.75</v>
+      </c>
+      <c r="D17">
+        <v>265.18</v>
+      </c>
+      <c r="E17">
+        <v>-44.37</v>
+      </c>
+      <c r="F17">
+        <v>-168.67</v>
+      </c>
+      <c r="G17">
+        <v>-0.43</v>
+      </c>
+      <c r="H17">
+        <v>51.71</v>
+      </c>
+      <c r="I17">
+        <v>82</v>
+      </c>
+      <c r="J17">
+        <v>133.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>193.56</v>
+      </c>
+      <c r="D18">
+        <v>554.12</v>
+      </c>
+      <c r="E18">
+        <v>-443.51</v>
+      </c>
+      <c r="F18">
+        <v>-88.23999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>22.37</v>
+      </c>
+      <c r="I18">
+        <v>133.71</v>
+      </c>
+      <c r="J18">
+        <v>156.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>296.05</v>
+      </c>
+      <c r="D19">
+        <v>264.91</v>
+      </c>
+      <c r="E19">
+        <v>-230.76</v>
+      </c>
+      <c r="F19">
+        <v>-138.96</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-104.81</v>
+      </c>
+      <c r="I19">
+        <v>156.09</v>
+      </c>
+      <c r="J19">
+        <v>51.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>200.36</v>
+      </c>
+      <c r="D20">
+        <v>376.76</v>
+      </c>
+      <c r="E20">
+        <v>390.23</v>
+      </c>
+      <c r="F20">
+        <v>-623.89</v>
+      </c>
+      <c r="G20">
+        <v>-1.09</v>
+      </c>
+      <c r="H20">
+        <v>142.02</v>
+      </c>
+      <c r="I20">
+        <v>51.28</v>
+      </c>
+      <c r="J20">
+        <v>193.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>23.25</v>
-      </c>
-      <c r="C2">
-        <v>15.57</v>
-      </c>
-      <c r="D2">
-        <v>-42.81</v>
-      </c>
-      <c r="E2">
-        <v>49.5</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>22.27</v>
-      </c>
-      <c r="H2">
-        <v>17.34</v>
-      </c>
-      <c r="I2">
-        <v>39.61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>28.54</v>
-      </c>
-      <c r="C3">
-        <v>21.65</v>
-      </c>
-      <c r="D3">
-        <v>-78.09999999999999</v>
-      </c>
-      <c r="E3">
-        <v>51.57</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-4.88</v>
-      </c>
-      <c r="H3">
-        <v>39.61</v>
-      </c>
-      <c r="I3">
-        <v>34.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>48.34</v>
-      </c>
-      <c r="C4">
-        <v>40.7</v>
-      </c>
-      <c r="D4">
-        <v>-81.61</v>
-      </c>
-      <c r="E4">
-        <v>32.73</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>-8.199999999999999</v>
-      </c>
-      <c r="H4">
-        <v>34.73</v>
-      </c>
-      <c r="I4">
-        <v>26.53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>70.7</v>
-      </c>
-      <c r="C5">
-        <v>50.7</v>
-      </c>
-      <c r="D5">
-        <v>-18.16</v>
-      </c>
-      <c r="E5">
-        <v>-1.35</v>
-      </c>
-      <c r="F5">
-        <v>0.06</v>
-      </c>
-      <c r="G5">
-        <v>31.25</v>
-      </c>
-      <c r="H5">
-        <v>26.53</v>
-      </c>
-      <c r="I5">
-        <v>57.79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>70.41</v>
-      </c>
-      <c r="C6">
-        <v>123.24</v>
-      </c>
-      <c r="D6">
-        <v>-50.72</v>
-      </c>
-      <c r="E6">
-        <v>-8.99</v>
-      </c>
-      <c r="F6">
-        <v>1.59</v>
-      </c>
-      <c r="G6">
-        <v>65.12</v>
-      </c>
-      <c r="H6">
-        <v>57.79</v>
-      </c>
-      <c r="I6">
-        <v>122.91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>90.17</v>
-      </c>
-      <c r="C7">
-        <v>109.85</v>
-      </c>
-      <c r="D7">
-        <v>-143.45</v>
-      </c>
-      <c r="E7">
-        <v>-12.72</v>
-      </c>
-      <c r="F7">
-        <v>-2.77</v>
-      </c>
-      <c r="G7">
-        <v>-49.09</v>
-      </c>
-      <c r="H7">
-        <v>101.82</v>
-      </c>
-      <c r="I7">
-        <v>52.73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>78.94</v>
-      </c>
-      <c r="C8">
-        <v>31.65</v>
-      </c>
-      <c r="D8">
-        <v>-55.38</v>
-      </c>
-      <c r="E8">
-        <v>105.2</v>
-      </c>
-      <c r="F8">
-        <v>2.4</v>
-      </c>
-      <c r="G8">
-        <v>95.34999999999999</v>
-      </c>
-      <c r="H8">
-        <v>52.73</v>
-      </c>
-      <c r="I8">
-        <v>148.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>106.86</v>
-      </c>
-      <c r="C9">
-        <v>95.92</v>
-      </c>
-      <c r="D9">
-        <v>-230.66</v>
-      </c>
-      <c r="E9">
-        <v>28.51</v>
-      </c>
-      <c r="F9">
-        <v>-2.66</v>
-      </c>
-      <c r="G9">
-        <v>-108.89</v>
-      </c>
-      <c r="H9">
-        <v>148.08</v>
-      </c>
-      <c r="I9">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>134.29</v>
-      </c>
-      <c r="C10">
-        <v>116.39</v>
-      </c>
-      <c r="D10">
-        <v>-373.11</v>
-      </c>
-      <c r="E10">
-        <v>282.76</v>
-      </c>
-      <c r="F10">
-        <v>1.03</v>
-      </c>
-      <c r="G10">
-        <v>27.07</v>
-      </c>
-      <c r="H10">
-        <v>39.2</v>
-      </c>
-      <c r="I10">
-        <v>66.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>197.32</v>
-      </c>
-      <c r="C11">
-        <v>67.98999999999999</v>
-      </c>
-      <c r="D11">
-        <v>-177.24</v>
-      </c>
-      <c r="E11">
-        <v>89.88</v>
-      </c>
-      <c r="F11">
-        <v>-0.23</v>
-      </c>
-      <c r="G11">
-        <v>-19.59</v>
-      </c>
-      <c r="H11">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="I11">
-        <v>52.81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>171.4</v>
-      </c>
-      <c r="C12">
-        <v>209.99</v>
-      </c>
-      <c r="D12">
-        <v>-92.19</v>
-      </c>
-      <c r="E12">
-        <v>-26.28</v>
-      </c>
-      <c r="F12">
-        <v>-1.06</v>
-      </c>
-      <c r="G12">
-        <v>90.45999999999999</v>
-      </c>
-      <c r="H12">
-        <v>54.38</v>
-      </c>
-      <c r="I12">
-        <v>144.84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>203.17</v>
-      </c>
-      <c r="C13">
-        <v>359.87</v>
-      </c>
-      <c r="D13">
-        <v>-123.5</v>
-      </c>
-      <c r="E13">
-        <v>-270.47</v>
-      </c>
-      <c r="F13">
-        <v>0.15</v>
-      </c>
-      <c r="G13">
-        <v>-33.94</v>
-      </c>
-      <c r="H13">
-        <v>144.84</v>
-      </c>
-      <c r="I13">
-        <v>110.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>169.29</v>
-      </c>
-      <c r="C14">
-        <v>125.96</v>
-      </c>
-      <c r="D14">
-        <v>-154.12</v>
-      </c>
-      <c r="E14">
-        <v>50.49</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>22.33</v>
-      </c>
-      <c r="H14">
-        <v>110.9</v>
-      </c>
-      <c r="I14">
-        <v>133.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>177.55</v>
-      </c>
-      <c r="C15">
-        <v>265.66</v>
-      </c>
-      <c r="D15">
-        <v>-135.87</v>
-      </c>
-      <c r="E15">
-        <v>-116.7</v>
-      </c>
-      <c r="F15">
-        <v>0.84</v>
-      </c>
-      <c r="G15">
-        <v>13.94</v>
-      </c>
-      <c r="H15">
-        <v>133.23</v>
-      </c>
-      <c r="I15">
-        <v>147.17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>167.63</v>
-      </c>
-      <c r="C16">
-        <v>29.49</v>
-      </c>
-      <c r="D16">
-        <v>89.13</v>
-      </c>
-      <c r="E16">
-        <v>-196.81</v>
-      </c>
-      <c r="F16">
-        <v>-2.29</v>
-      </c>
-      <c r="G16">
-        <v>-65.17</v>
-      </c>
-      <c r="H16">
-        <v>147.17</v>
-      </c>
-      <c r="I16">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>140.75</v>
-      </c>
-      <c r="C17">
-        <v>265.18</v>
-      </c>
-      <c r="D17">
-        <v>-44.37</v>
-      </c>
-      <c r="E17">
-        <v>-168.67</v>
-      </c>
-      <c r="F17">
-        <v>-0.43</v>
-      </c>
-      <c r="G17">
-        <v>51.71</v>
-      </c>
-      <c r="H17">
-        <v>82</v>
-      </c>
-      <c r="I17">
-        <v>133.71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>193.56</v>
-      </c>
-      <c r="C18">
-        <v>554.12</v>
-      </c>
-      <c r="D18">
-        <v>-443.51</v>
-      </c>
-      <c r="E18">
-        <v>-88.23999999999999</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>22.37</v>
-      </c>
-      <c r="H18">
-        <v>133.71</v>
-      </c>
-      <c r="I18">
-        <v>156.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>296.05</v>
-      </c>
-      <c r="C19">
-        <v>264.91</v>
-      </c>
-      <c r="D19">
-        <v>-230.76</v>
-      </c>
-      <c r="E19">
-        <v>-138.96</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>-104.81</v>
-      </c>
-      <c r="H19">
-        <v>156.09</v>
-      </c>
-      <c r="I19">
-        <v>51.28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>200.36</v>
-      </c>
-      <c r="C20">
-        <v>376.76</v>
-      </c>
-      <c r="D20">
-        <v>390.23</v>
-      </c>
-      <c r="E20">
-        <v>-623.89</v>
-      </c>
-      <c r="F20">
-        <v>-1.09</v>
-      </c>
-      <c r="G20">
-        <v>142.02</v>
-      </c>
-      <c r="H20">
-        <v>51.28</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>396.24</v>
+      </c>
+      <c r="D21">
+        <v>358.68</v>
+      </c>
+      <c r="E21">
+        <v>-347.45</v>
+      </c>
+      <c r="F21">
+        <v>-150.49</v>
+      </c>
+      <c r="G21">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="H21">
+        <v>-140.08</v>
+      </c>
+      <c r="I21">
         <v>193.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>396.24</v>
-      </c>
-      <c r="C21">
-        <v>358.68</v>
-      </c>
-      <c r="D21">
-        <v>-347.45</v>
-      </c>
-      <c r="E21">
-        <v>-150.49</v>
-      </c>
-      <c r="F21">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="G21">
-        <v>-140.08</v>
-      </c>
-      <c r="H21">
-        <v>193.3</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>53.22</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>193.18</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>193.18</v>
@@ -2328,66 +2421,69 @@
         <v>193.18</v>
       </c>
       <c r="E2">
+        <v>193.18</v>
+      </c>
+      <c r="F2">
         <v>1.79</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>194.97</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>118.38</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>9.220000000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.03</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3.08</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>38.89</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>171.72</v>
-      </c>
-      <c r="M2">
-        <v>23.25</v>
       </c>
       <c r="N2">
         <v>23.25</v>
       </c>
       <c r="O2">
+        <v>23.25</v>
+      </c>
+      <c r="P2">
         <v>0.98</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-0.09</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.89</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>22.36</v>
-      </c>
-      <c r="S2">
-        <v>22.67</v>
       </c>
       <c r="T2">
         <v>22.67</v>
       </c>
       <c r="U2">
-        <v>16.09</v>
+        <v>22.67</v>
       </c>
       <c r="V2">
         <v>16.09</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>257.72</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>257.72</v>
@@ -2396,66 +2492,69 @@
         <v>257.72</v>
       </c>
       <c r="E3">
+        <v>257.72</v>
+      </c>
+      <c r="F3">
         <v>5.24</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>262.97</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>160.1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>12.33</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.02</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>8.02</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>48.96</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>234.43</v>
-      </c>
-      <c r="M3">
-        <v>28.54</v>
       </c>
       <c r="N3">
         <v>28.54</v>
       </c>
       <c r="O3">
+        <v>28.54</v>
+      </c>
+      <c r="P3">
         <v>0.87</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.23</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1.56</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>26.98</v>
-      </c>
-      <c r="S3">
-        <v>27.02</v>
       </c>
       <c r="T3">
         <v>27.02</v>
       </c>
       <c r="U3">
-        <v>18.56</v>
+        <v>27.02</v>
       </c>
       <c r="V3">
         <v>18.56</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>18.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>317.21</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>317.21</v>
@@ -2464,66 +2563,69 @@
         <v>317.21</v>
       </c>
       <c r="E4">
+        <v>317.21</v>
+      </c>
+      <c r="F4">
         <v>5.71</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>322.92</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>210.09</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>19.06</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>6.05</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10.77</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>26.01</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>275.09</v>
-      </c>
-      <c r="M4">
-        <v>47.83</v>
       </c>
       <c r="N4">
         <v>47.83</v>
       </c>
       <c r="O4">
+        <v>47.83</v>
+      </c>
+      <c r="P4">
         <v>0.79</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2.35</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>45.48</v>
-      </c>
-      <c r="S4">
-        <v>45.74</v>
       </c>
       <c r="T4">
         <v>45.74</v>
       </c>
       <c r="U4">
-        <v>6.12</v>
+        <v>45.74</v>
       </c>
       <c r="V4">
         <v>6.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>463.35</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>463.35</v>
@@ -2532,66 +2634,69 @@
         <v>463.35</v>
       </c>
       <c r="E5">
+        <v>463.35</v>
+      </c>
+      <c r="F5">
         <v>26.47</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>489.82</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>315.33</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>28.54</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>8.449999999999999</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>20.38</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>42.4</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>419.23</v>
-      </c>
-      <c r="M5">
-        <v>70.59</v>
       </c>
       <c r="N5">
         <v>70.59</v>
       </c>
       <c r="O5">
+        <v>70.59</v>
+      </c>
+      <c r="P5">
         <v>2.48</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3.19</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>6.61</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>63.98</v>
-      </c>
-      <c r="S5">
-        <v>64.08</v>
       </c>
       <c r="T5">
         <v>64.08</v>
       </c>
       <c r="U5">
-        <v>8.23</v>
+        <v>64.08</v>
       </c>
       <c r="V5">
         <v>8.23</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>644.1799999999999</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>644.1799999999999</v>
@@ -2600,46 +2705,46 @@
         <v>644.1799999999999</v>
       </c>
       <c r="E6">
+        <v>644.1799999999999</v>
+      </c>
+      <c r="F6">
         <v>-63.97</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>580.21</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>390.31</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>35.81</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>7.49</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>23.26</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>48.53</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>509.8</v>
-      </c>
-      <c r="M6">
-        <v>70.41</v>
       </c>
       <c r="N6">
         <v>70.41</v>
       </c>
       <c r="O6">
+        <v>70.41</v>
+      </c>
+      <c r="P6">
         <v>5.45</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>7.64</v>
-      </c>
-      <c r="R6">
-        <v>62.77</v>
       </c>
       <c r="S6">
         <v>62.77</v>
@@ -2648,18 +2753,21 @@
         <v>62.77</v>
       </c>
       <c r="U6">
-        <v>8.039999999999999</v>
+        <v>62.77</v>
       </c>
       <c r="V6">
         <v>8.039999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>8.039999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>427.04</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>427.04</v>
@@ -2668,66 +2776,69 @@
         <v>427.04</v>
       </c>
       <c r="E7">
+        <v>427.04</v>
+      </c>
+      <c r="F7">
         <v>-13.15</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>413.89</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>235.56</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>23.51</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.97</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>28.17</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>31.03</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>323.72</v>
-      </c>
-      <c r="M7">
-        <v>90.17</v>
       </c>
       <c r="N7">
         <v>90.17</v>
       </c>
       <c r="O7">
+        <v>90.17</v>
+      </c>
+      <c r="P7">
         <v>11.65</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-0.88</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>10.76</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>79.41</v>
-      </c>
-      <c r="S7">
-        <v>78.45</v>
       </c>
       <c r="T7">
         <v>78.45</v>
       </c>
       <c r="U7">
-        <v>9.99</v>
+        <v>78.45</v>
       </c>
       <c r="V7">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>527.64</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>527.64</v>
@@ -2736,46 +2847,46 @@
         <v>527.64</v>
       </c>
       <c r="E8">
+        <v>527.64</v>
+      </c>
+      <c r="F8">
         <v>6.56</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>534.2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>305.34</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3.56</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>35.09</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>111.27</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>455.25</v>
-      </c>
-      <c r="M8">
-        <v>78.94</v>
       </c>
       <c r="N8">
         <v>78.94</v>
       </c>
       <c r="O8">
+        <v>78.94</v>
+      </c>
+      <c r="P8">
         <v>14.56</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.44</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>9.449999999999999</v>
-      </c>
-      <c r="R8">
-        <v>69.48999999999999</v>
       </c>
       <c r="S8">
         <v>69.48999999999999</v>
@@ -2784,18 +2895,21 @@
         <v>69.48999999999999</v>
       </c>
       <c r="U8">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="V8">
         <v>4.1</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>4.03</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>612.89</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>612.89</v>
@@ -2804,46 +2918,46 @@
         <v>612.89</v>
       </c>
       <c r="E9">
+        <v>612.89</v>
+      </c>
+      <c r="F9">
         <v>5.92</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>618.8099999999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>334.01</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4.55</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>39.57</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>143.87</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>522</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>96.81999999999999</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>106.86</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>33.83</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-4.88</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>32.19</v>
-      </c>
-      <c r="R9">
-        <v>74.67</v>
       </c>
       <c r="S9">
         <v>74.67</v>
@@ -2852,18 +2966,21 @@
         <v>74.67</v>
       </c>
       <c r="U9">
+        <v>74.67</v>
+      </c>
+      <c r="V9">
         <v>4.21</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>4.15</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>715.24</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>715.24</v>
@@ -2872,46 +2989,46 @@
         <v>715.24</v>
       </c>
       <c r="E10">
+        <v>715.24</v>
+      </c>
+      <c r="F10">
         <v>8.16</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>723.4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>353.67</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8.210000000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>37.51</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>187.87</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>587.26</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>136.14</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>134.29</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>33.48</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-1.45</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>31.24</v>
-      </c>
-      <c r="R10">
-        <v>103.05</v>
       </c>
       <c r="S10">
         <v>103.05</v>
@@ -2920,66 +3037,69 @@
         <v>103.05</v>
       </c>
       <c r="U10">
+        <v>103.05</v>
+      </c>
+      <c r="V10">
         <v>5.63</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>5.47</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>890.36</v>
-      </c>
-      <c r="C11">
-        <v>890.09</v>
       </c>
       <c r="D11">
         <v>890.09</v>
       </c>
       <c r="E11">
+        <v>890.09</v>
+      </c>
+      <c r="F11">
         <v>17.07</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>907.15</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>445.87</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>20.03</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>39.96</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>213.64</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>722.08</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>185.08</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>197.32</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>44.03</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4.13</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>48.16</v>
-      </c>
-      <c r="R11">
-        <v>149.16</v>
       </c>
       <c r="S11">
         <v>149.16</v>
@@ -2988,66 +3108,69 @@
         <v>149.16</v>
       </c>
       <c r="U11">
+        <v>149.16</v>
+      </c>
+      <c r="V11">
         <v>9.06</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>8.82</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>1258.21</v>
-      </c>
-      <c r="C12">
-        <v>1245.75</v>
       </c>
       <c r="D12">
         <v>1245.75</v>
       </c>
       <c r="E12">
+        <v>1245.75</v>
+      </c>
+      <c r="F12">
         <v>22.76</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1268.5</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>664.47</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>22.15</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>69.43000000000001</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>256.65</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1097.1</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>171.4</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>220.77</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>29.49</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-10.14</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>19.36</v>
-      </c>
-      <c r="R12">
-        <v>201.41</v>
       </c>
       <c r="S12">
         <v>201.41</v>
@@ -3056,66 +3179,69 @@
         <v>201.41</v>
       </c>
       <c r="U12">
+        <v>201.41</v>
+      </c>
+      <c r="V12">
         <v>10.62</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>10.09</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>1264.1</v>
-      </c>
-      <c r="C13">
-        <v>1261.86</v>
       </c>
       <c r="D13">
         <v>1261.86</v>
       </c>
       <c r="E13">
+        <v>1261.86</v>
+      </c>
+      <c r="F13">
         <v>27.69</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1289.55</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>717.5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>10.64</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>58.37</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>240.36</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1040.17</v>
-      </c>
-      <c r="M13">
-        <v>249.38</v>
       </c>
       <c r="N13">
         <v>249.38</v>
       </c>
       <c r="O13">
+        <v>249.38</v>
+      </c>
+      <c r="P13">
         <v>48.72</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1.63</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>46.21</v>
-      </c>
-      <c r="R13">
-        <v>203.17</v>
       </c>
       <c r="S13">
         <v>203.17</v>
@@ -3124,66 +3250,69 @@
         <v>203.17</v>
       </c>
       <c r="U13">
+        <v>203.17</v>
+      </c>
+      <c r="V13">
         <v>10.62</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>10.17</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>1322.32</v>
-      </c>
-      <c r="C14">
-        <v>1319.56</v>
       </c>
       <c r="D14">
         <v>1319.56</v>
       </c>
       <c r="E14">
+        <v>1319.56</v>
+      </c>
+      <c r="F14">
         <v>15.94</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1335.5</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>796.54</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>8.539999999999999</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>71.14</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>237.07</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1137.26</v>
-      </c>
-      <c r="M14">
-        <v>198.24</v>
       </c>
       <c r="N14">
         <v>198.24</v>
       </c>
       <c r="O14">
+        <v>198.24</v>
+      </c>
+      <c r="P14">
         <v>37.69</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-8.74</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>28.95</v>
-      </c>
-      <c r="R14">
-        <v>169.29</v>
       </c>
       <c r="S14">
         <v>169.29</v>
@@ -3192,66 +3321,69 @@
         <v>169.29</v>
       </c>
       <c r="U14">
+        <v>169.29</v>
+      </c>
+      <c r="V14">
         <v>8.83</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>8.470000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>1442.35</v>
-      </c>
-      <c r="C15">
-        <v>1442.29</v>
       </c>
       <c r="D15">
         <v>1442.29</v>
       </c>
       <c r="E15">
+        <v>1442.29</v>
+      </c>
+      <c r="F15">
         <v>42.08</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1484.37</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>924.1799999999999</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4.83</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>72.53</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>278.71</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1286.26</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>198.11</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>200.66</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>45.67</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-22.56</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>23.11</v>
-      </c>
-      <c r="R15">
-        <v>177.55</v>
       </c>
       <c r="S15">
         <v>177.55</v>
@@ -3260,18 +3392,21 @@
         <v>177.55</v>
       </c>
       <c r="U15">
+        <v>177.55</v>
+      </c>
+      <c r="V15">
         <v>9.220000000000001</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>8.91</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>1001.99</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1001.99</v>
@@ -3280,66 +3415,69 @@
         <v>1001.99</v>
       </c>
       <c r="E16">
+        <v>1001.99</v>
+      </c>
+      <c r="F16">
         <v>24.89</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1026.88</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>627.5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5.38</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>39.02</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>209.91</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>881.8200000000001</v>
-      </c>
-      <c r="M16">
-        <v>145.06</v>
       </c>
       <c r="N16">
         <v>145.06</v>
       </c>
       <c r="O16">
+        <v>145.06</v>
+      </c>
+      <c r="P16">
         <v>52.84</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-13.69</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>39.16</v>
-      </c>
-      <c r="R16">
-        <v>105.9</v>
       </c>
       <c r="S16">
         <v>105.9</v>
       </c>
       <c r="T16">
+        <v>105.9</v>
+      </c>
+      <c r="U16">
         <v>167.63</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>7.83</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>7.74</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>1462.16</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>1462.16</v>
@@ -3348,46 +3486,46 @@
         <v>1462.16</v>
       </c>
       <c r="E17">
+        <v>1462.16</v>
+      </c>
+      <c r="F17">
         <v>34.95</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1497.12</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>943.5</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>12.35</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>69.26000000000001</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>249.14</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1274.25</v>
-      </c>
-      <c r="M17">
-        <v>222.87</v>
       </c>
       <c r="N17">
         <v>222.87</v>
       </c>
       <c r="O17">
+        <v>222.87</v>
+      </c>
+      <c r="P17">
         <v>72.95</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>9.17</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>82.11</v>
-      </c>
-      <c r="R17">
-        <v>140.75</v>
       </c>
       <c r="S17">
         <v>140.75</v>
@@ -3396,18 +3534,21 @@
         <v>140.75</v>
       </c>
       <c r="U17">
+        <v>140.75</v>
+      </c>
+      <c r="V17">
         <v>5.09</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>5.05</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>1640.53</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>1640.53</v>
@@ -3416,46 +3557,46 @@
         <v>1640.53</v>
       </c>
       <c r="E18">
+        <v>1640.53</v>
+      </c>
+      <c r="F18">
         <v>11.95</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1652.48</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1054.93</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>10.24</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>69.94</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>230.15</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1365.26</v>
-      </c>
-      <c r="M18">
-        <v>287.22</v>
       </c>
       <c r="N18">
         <v>287.22</v>
       </c>
       <c r="O18">
+        <v>287.22</v>
+      </c>
+      <c r="P18">
         <v>76.19</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>17.48</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>93.67</v>
-      </c>
-      <c r="R18">
-        <v>193.56</v>
       </c>
       <c r="S18">
         <v>193.56</v>
@@ -3464,18 +3605,21 @@
         <v>193.56</v>
       </c>
       <c r="U18">
+        <v>193.56</v>
+      </c>
+      <c r="V18">
         <v>6.96</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>6.81</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>2049.38</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>2049.38</v>
@@ -3484,46 +3628,46 @@
         <v>2049.38</v>
       </c>
       <c r="E19">
+        <v>2049.38</v>
+      </c>
+      <c r="F19">
         <v>74.13</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2123.51</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1374.96</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>10.72</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>68.51000000000001</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>272.49</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1726.68</v>
-      </c>
-      <c r="M19">
-        <v>396.83</v>
       </c>
       <c r="N19">
         <v>396.83</v>
       </c>
       <c r="O19">
+        <v>396.83</v>
+      </c>
+      <c r="P19">
         <v>93.12</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>7.66</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>100.78</v>
-      </c>
-      <c r="R19">
-        <v>296.05</v>
       </c>
       <c r="S19">
         <v>296.05</v>
@@ -3532,18 +3676,21 @@
         <v>296.05</v>
       </c>
       <c r="U19">
+        <v>296.05</v>
+      </c>
+      <c r="V19">
         <v>10.62</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>10.49</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>2417.24</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>2417.24</v>
@@ -3552,46 +3699,46 @@
         <v>2417.24</v>
       </c>
       <c r="E20">
+        <v>2417.24</v>
+      </c>
+      <c r="F20">
         <v>34.17</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2451.41</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1669.35</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>9.84</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>75.94</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>429.08</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2184.22</v>
-      </c>
-      <c r="M20">
-        <v>267.2</v>
       </c>
       <c r="N20">
         <v>267.2</v>
       </c>
       <c r="O20">
+        <v>267.2</v>
+      </c>
+      <c r="P20">
         <v>73.27</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-6.44</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>66.83</v>
-      </c>
-      <c r="R20">
-        <v>200.36</v>
       </c>
       <c r="S20">
         <v>200.36</v>
@@ -3600,18 +3747,21 @@
         <v>200.36</v>
       </c>
       <c r="U20">
+        <v>200.36</v>
+      </c>
+      <c r="V20">
         <v>7.23</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>7.2</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>2644.53</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>2644.53</v>
@@ -3620,46 +3770,46 @@
         <v>2644.53</v>
       </c>
       <c r="E21">
+        <v>2644.53</v>
+      </c>
+      <c r="F21">
         <v>98.31999999999999</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2742.85</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1834.63</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>6.92</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>76.33</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>428.72</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2346.61</v>
-      </c>
-      <c r="M21">
-        <v>396.24</v>
       </c>
       <c r="N21">
         <v>396.24</v>
       </c>
       <c r="O21">
+        <v>396.24</v>
+      </c>
+      <c r="P21">
         <v>90.92</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>6.59</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>97.5</v>
-      </c>
-      <c r="R21">
-        <v>298.74</v>
       </c>
       <c r="S21">
         <v>298.74</v>
@@ -3668,9 +3818,12 @@
         <v>298.74</v>
       </c>
       <c r="U21">
+        <v>298.74</v>
+      </c>
+      <c r="V21">
         <v>10.8</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>10.66</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>214.02</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>215.34</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>270.25</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>227.35</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>388.02</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>297.56</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>321.25</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>308.72</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>318.55</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>307.84</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>326.74</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>328.74</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>341.33</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>328.82</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>321.07</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>313.1</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>351.45</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>377.71</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>400.03</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>420.38</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>443.59</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
       </c>
       <c r="D23">
         <v>222.61</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>340.42</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>343.84</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>354.04</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>368.23</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>396.05</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>384.86</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>401.09</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>409.51</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>445.07</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>453.23</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>509.86</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>528.95</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>557.33</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>563.4400000000001</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>612.39</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>616.97</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>624.4400000000001</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>622.53</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>646.61</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>693.36</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>682.03</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>721.38</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>643.6900000000001</v>
@@ -6960,1185 +7113,1248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>137.11</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>19.42</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>17.23</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>16.5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16.09</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>14.16</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>12.56</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12.03</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>11.73</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>21.39</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>13.58</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.35</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>10.87</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>9.57</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>89.13</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>448.43</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>16.39</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>177.01</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>27.18</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>21.67</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>19.6</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>18.56</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>15.35</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>12.24</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>11.07</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10.48</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>19.58</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>10.28</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.63</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>9.43</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>7.27</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>90.56999999999999</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>623.22</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>15.75</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>42.42</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>8.65</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>7.21</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6.4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6.12</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20.38</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>16.98</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>15.07</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>14.41</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>23.99</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>12.07</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.64</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>11.44</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>9.26</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>88.56</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1079.44</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>16.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>59.49</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>12.76</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10.15</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>9.06</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8.23</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>21.45</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>17.05</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>15.23</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>13.83</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>23.51</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>14.59</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.32</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>8.5</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>6.45</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>91.5</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>633.85</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>6.38</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>82.54000000000001</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>12.96</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9.98</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9.02</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8.039999999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>15.7</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>12.09</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10.93</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>9.74</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>36.57</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>11.38</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.6899999999999999</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>7.46</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5.44</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>92.54000000000001</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>195.36</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.93</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>54.38</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>15.32</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>11.73</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11.48</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9.99</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>28.17</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>21.57</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>21.11</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>18.37</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20.28</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>13.31</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.29</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>7</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>5.15</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>93</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>955.92</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>7.95</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>60.05</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>13.38</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>9.390000000000001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>8.98</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7.91</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>22.28</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>15.63</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>14.96</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>13.16</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>11.94</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>8.640000000000001</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.16</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>8.869999999999999</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>5.9</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>91.13</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1420.4</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>12.08</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>34.44</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>7.92</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>5.7</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>6.01</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4.2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>22.99</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>16.53</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>17.43</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>12.18</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>12.15</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>8.029999999999999</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.23</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>16.69</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>10.91</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>83.31</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1524.15</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>10.81</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>37.09</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>9.43</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>7.49</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6.96</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5.34</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>25.42</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>20.18</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>18.77</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>14.4</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>11.61</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>7.73</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.29</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>16.86</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>12.36</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>83.14</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2044.37</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>11.24</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>47.98</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>13.21</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>11.06</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10.64</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>8.039999999999999</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>27.53</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>23.04</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>22.16</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>16.75</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>14.29</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>9.130000000000001</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.36</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>14.32</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>11.3</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>85.68000000000001</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>3300.01</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>13.47</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>66.23999999999999</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>13.98</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>10.29</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11.74</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>10.71</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>21.11</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>15.53</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>17.72</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>16.16</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>19.31</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>11.8</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.4</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>10.78</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>8.02</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>89.22</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>3771.76</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>14.34</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>67.18000000000001</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>16.95</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>13.84</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>13.28</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>10.82</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>25.23</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>20.6</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>19.76</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>16.1</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>16.66</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>12.01</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.18</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>20.84</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>16.19</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>79.16</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2769.45</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>8.699999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>70.12</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>14.77</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>10.99</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>10.53</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>21.06</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>15.67</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>15.02</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>12.82</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>12.31</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>8.81</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.21</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>12.21</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>8.59</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>87.79000000000001</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2588.21</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>9.31</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>76.09999999999999</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>14.54</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>10.71</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>10.59</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>9.369999999999999</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>19.09</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>14.07</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>13.91</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>12.31</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>11.8</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>8.44</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.17</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>23.34</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>16.57</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>76.66</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>4205.05</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>15.27</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>36.55</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>6.91</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5.49</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>5.29</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6.11</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>18.9</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>15.01</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>14.47</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>16.73</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>14.15</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>10.07</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.03</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>27.25</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>22.1</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>72.75</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2634.11</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>13.9</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>52.84</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>8.5</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>8.050000000000001</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5.09</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>20.82</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>16.08</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>15.24</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>9.619999999999999</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>11.61</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>8.41</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>58.69</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>39.33</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>41.31</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1387.51</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>4.56</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>59.16</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>13.25</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>10.73</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>10.36</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6.98</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>22.39</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>18.13</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>17.5</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>11.79</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>13.89</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>10.55</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>28.63</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>21.03</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>71.37</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>6279.55</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>17.09</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>73.31999999999999</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>17.03</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>14.58</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>14.2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>10.59</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>23.22</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>19.88</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>19.36</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>14.44</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>18.63</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>14.74</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>37.52</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>30.46</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>62.48</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>12562.35</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>26.39</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>87.94</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>12.84</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>10.08</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>9.720000000000001</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>7.29</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>14.6</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>11.46</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>11.05</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>8.279999999999999</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>16.41</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>12.36</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>62.36</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>45.22</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>37.64</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>6912.03</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>19.58</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>95.84</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>17.38</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>14.61</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>14.36</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>10.83</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>18.13</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>15.24</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>14.98</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>11.29</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>20.34</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>14.8</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>41.49</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>33.05</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>58.51</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>20392.93</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>42.53</v>
       </c>
     </row>
